--- a/SPEKTRAL_ANALİZ/EXCELLER/erdemli_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/erdemli_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.2689253472222222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1463359644911731</v>
+        <v>0.1512039214733343</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.2396493055555556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2253779137607487</v>
+        <v>0.2301744004351209</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.3582096774193548</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2954542314453349</v>
+        <v>0.300942972066629</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.3360288978494624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3166321324803883</v>
+        <v>0.3211979899413544</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.274622337962963</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2821409450498135</v>
+        <v>0.2846983644472588</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>0.259070564516129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2213657639033723</v>
+        <v>0.2238320627979426</v>
       </c>
     </row>
     <row r="8">
@@ -546,10 +546,10 @@
         <v>37926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1942265046296296</v>
+        <v>0.1949142159822866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1719139159529281</v>
+        <v>0.1784022884947641</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>0.1696229838709677</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1482988281288022</v>
+        <v>0.1615405491242325</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         <v>37987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2730903897849462</v>
+        <v>0.2714967517921147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1368717090823174</v>
+        <v>0.1553018744150642</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +591,7 @@
         <v>0.1417768199233717</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1195385538013815</v>
+        <v>0.1380086474090834</v>
       </c>
     </row>
     <row r="12">
@@ -602,10 +602,10 @@
         <v>38047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05888754480286738</v>
+        <v>0.06724957956729521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09984769690943816</v>
+        <v>0.1134808003872433</v>
       </c>
     </row>
     <row r="13">
@@ -616,10 +616,10 @@
         <v>38078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1111524305555556</v>
+        <v>0.1111611111111111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1032184965407093</v>
+        <v>0.110898472189539</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +633,7 @@
         <v>0.2196917562724014</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1500704158599677</v>
+        <v>0.1544477226992925</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
         <v>0.2005930555555556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2291123651295433</v>
+        <v>0.2334182016610791</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +661,7 @@
         <v>0.2878588709677419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2991886828141295</v>
+        <v>0.3041867732925873</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +675,7 @@
         <v>0.3559163306451613</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3203665838491829</v>
+        <v>0.3244417911673126</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +689,7 @@
         <v>0.2774802083333334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2858753964186082</v>
+        <v>0.2879421656732172</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +703,7 @@
         <v>0.2483884408602151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.225100215272167</v>
+        <v>0.2270758640239008</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         <v>0.2000438973063973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1756483673217227</v>
+        <v>0.1816460897207223</v>
       </c>
     </row>
     <row r="21">
@@ -728,10 +728,10 @@
         <v>38322</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08452788978494624</v>
+        <v>0.08614320916538659</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1520332794975969</v>
+        <v>0.1647843503501908</v>
       </c>
     </row>
     <row r="22">
@@ -742,10 +742,10 @@
         <v>38353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1091528897849462</v>
+        <v>0.1142195877748297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140606160451112</v>
+        <v>0.1585456756410224</v>
       </c>
     </row>
     <row r="23">
@@ -756,10 +756,10 @@
         <v>38384</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09764099702380953</v>
+        <v>0.1021796371125855</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1232730051701762</v>
+        <v>0.1412524486350416</v>
       </c>
     </row>
     <row r="24">
@@ -770,10 +770,10 @@
         <v>38412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1166004850397382</v>
+        <v>0.1168638966806919</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1035821482782328</v>
+        <v>0.1167246016132015</v>
       </c>
     </row>
     <row r="25">
@@ -784,10 +784,10 @@
         <v>38443</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1117301557239057</v>
+        <v>0.1120366623664178</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1069529479095039</v>
+        <v>0.1141422734154972</v>
       </c>
     </row>
     <row r="26">
@@ -798,10 +798,10 @@
         <v>38473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1459322356630824</v>
+        <v>0.1480402341539332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1538048672287623</v>
+        <v>0.1576915239252507</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +815,7 @@
         <v>0.2189665509259259</v>
       </c>
       <c r="D27" t="n">
-        <v>0.232846816498338</v>
+        <v>0.2366620028870375</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +829,7 @@
         <v>0.3115786290322581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3029231341829243</v>
+        <v>0.3074305745185455</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +843,7 @@
         <v>0.3503013382421692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3241010352179776</v>
+        <v>0.3276855923932708</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +857,7 @@
         <v>0.2785482638888889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2896098477874028</v>
+        <v>0.2911859668991754</v>
       </c>
     </row>
     <row r="31">
@@ -871,7 +871,7 @@
         <v>0.1762271505376344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2288346666409616</v>
+        <v>0.2303196652498591</v>
       </c>
     </row>
     <row r="32">
@@ -882,10 +882,10 @@
         <v>38657</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1084851851851852</v>
+        <v>0.1084886574074074</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1793828186905175</v>
+        <v>0.1848898909466807</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +899,7 @@
         <v>0.1491682347670251</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1557677308663915</v>
+        <v>0.168028151576149</v>
       </c>
     </row>
     <row r="34">
@@ -910,10 +910,10 @@
         <v>38718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06231787634408602</v>
+        <v>0.06558170210166177</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1443406118199067</v>
+        <v>0.1617894768669806</v>
       </c>
     </row>
     <row r="35">
@@ -924,10 +924,10 @@
         <v>38749</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09345014880952382</v>
+        <v>0.09497075892857143</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1270074565389708</v>
+        <v>0.1444962498609997</v>
       </c>
     </row>
     <row r="36">
@@ -941,7 +941,7 @@
         <v>0.1742232142857143</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1073165996470274</v>
+        <v>0.1199684028391597</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +955,7 @@
         <v>0.1478512731481482</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1106873992782986</v>
+        <v>0.1173860746414555</v>
       </c>
     </row>
     <row r="38">
@@ -966,10 +966,10 @@
         <v>38838</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0349123819971909</v>
+        <v>0.0844634285939385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1575393185975569</v>
+        <v>0.1609353251512089</v>
       </c>
     </row>
     <row r="39">
@@ -980,10 +980,10 @@
         <v>38869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1604266308269026</v>
+        <v>0.1764743012524875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2365812678671324</v>
+        <v>0.2399058041129953</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +997,7 @@
         <v>0.3009392385460496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3066575855517186</v>
+        <v>0.3106743757445036</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +1011,7 @@
         <v>0.3394022177419355</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3278354865867723</v>
+        <v>0.3309293936192291</v>
       </c>
     </row>
     <row r="42">
@@ -1025,7 +1025,7 @@
         <v>0.27985625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2933442991561973</v>
+        <v>0.2944297681251334</v>
       </c>
     </row>
     <row r="43">
@@ -1039,7 +1039,7 @@
         <v>0.2745384519154681</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2325691180097567</v>
+        <v>0.2335634664758178</v>
       </c>
     </row>
     <row r="44">
@@ -1053,7 +1053,7 @@
         <v>0.2018760416666666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.183117270059312</v>
+        <v>0.1881336921726388</v>
       </c>
     </row>
     <row r="45">
@@ -1063,12 +1063,8 @@
       <c r="B45" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="C45" t="n">
-        <v>-0.01291666666666667</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.1595021822351862</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1077,12 +1073,8 @@
       <c r="B46" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="C46" t="n">
-        <v>-0.002281249999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.1480750631887013</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1092,10 +1084,10 @@
         <v>39114</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09497544642857143</v>
+        <v>0.09519026591614907</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1307419079077654</v>
+        <v>0.147740051086958</v>
       </c>
     </row>
     <row r="48">
@@ -1106,10 +1098,10 @@
         <v>39142</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06802990591397849</v>
+        <v>0.07282705566590837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1110510510158222</v>
+        <v>0.1232122040651181</v>
       </c>
     </row>
     <row r="49">
@@ -1119,12 +1111,8 @@
       <c r="B49" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.03001631944444444</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.1144218506470932</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1134,10 +1122,10 @@
         <v>39203</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1021260080645161</v>
+        <v>0.1034349257830762</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1612737699663515</v>
+        <v>0.1641791263771671</v>
       </c>
     </row>
     <row r="51">
@@ -1151,7 +1139,7 @@
         <v>0.2448100694444445</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240315719235927</v>
+        <v>0.2431496053389535</v>
       </c>
     </row>
     <row r="52">
@@ -1165,7 +1153,7 @@
         <v>0.2872557123655914</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3103920369205136</v>
+        <v>0.3139181769704621</v>
       </c>
     </row>
     <row r="53">
@@ -1179,7 +1167,7 @@
         <v>0.3371098790322581</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3315699379555669</v>
+        <v>0.3341731948451874</v>
       </c>
     </row>
     <row r="54">
@@ -1193,7 +1181,7 @@
         <v>0.2541131944444445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2970787505249919</v>
+        <v>0.2976735693510917</v>
       </c>
     </row>
     <row r="55">
@@ -1207,7 +1195,7 @@
         <v>0.2005709005376344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236303569378551</v>
+        <v>0.2368072677017756</v>
       </c>
     </row>
     <row r="56">
@@ -1221,7 +1209,7 @@
         <v>0.201009375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1868517214281067</v>
+        <v>0.1913774933985971</v>
       </c>
     </row>
     <row r="57">
@@ -1235,7 +1223,7 @@
         <v>0.1631209677419355</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1632366336039807</v>
+        <v>0.1745157540280654</v>
       </c>
     </row>
     <row r="58">
@@ -1249,7 +1237,7 @@
         <v>0.05644108422939068</v>
       </c>
       <c r="D58" t="n">
-        <v>0.151809514557496</v>
+        <v>0.1682770793188971</v>
       </c>
     </row>
     <row r="59">
@@ -1259,12 +1247,8 @@
       <c r="B59" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="C59" t="n">
-        <v>-0.04087694836293974</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1344763592765602</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1274,10 +1258,10 @@
         <v>39508</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09830959616198046</v>
+        <v>0.09921458840559472</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1147855023846167</v>
+        <v>0.1264560052910762</v>
       </c>
     </row>
     <row r="61">
@@ -1291,7 +1275,7 @@
         <v>0.1687685185185185</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1181563020158879</v>
+        <v>0.1238736770933719</v>
       </c>
     </row>
     <row r="62">
@@ -1305,7 +1289,7 @@
         <v>0.1689196474287337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1650082213351456</v>
+        <v>0.1674229276031248</v>
       </c>
     </row>
     <row r="63">
@@ -1319,7 +1303,7 @@
         <v>0.2046506944444444</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2440501706047216</v>
+        <v>0.2463934065649117</v>
       </c>
     </row>
     <row r="64">
@@ -1333,7 +1317,7 @@
         <v>0.2984520609318996</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3141264882893079</v>
+        <v>0.3171619781964199</v>
       </c>
     </row>
     <row r="65">
@@ -1347,7 +1331,7 @@
         <v>0.3265383064516129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3353043893243615</v>
+        <v>0.3374169960711455</v>
       </c>
     </row>
     <row r="66">
@@ -1361,7 +1345,7 @@
         <v>0.2811288194444445</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300813201893787</v>
+        <v>0.3009173705770504</v>
       </c>
     </row>
     <row r="67">
@@ -1375,7 +1359,7 @@
         <v>0.1853877444678199</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2400380207473456</v>
+        <v>0.2400510689277338</v>
       </c>
     </row>
     <row r="68">
@@ -1389,7 +1373,7 @@
         <v>0.182878125</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1905861727969011</v>
+        <v>0.1946212946245551</v>
       </c>
     </row>
     <row r="69">
@@ -1403,7 +1387,7 @@
         <v>0.1711495295698925</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1669710849727755</v>
+        <v>0.1777595552540237</v>
       </c>
     </row>
     <row r="70">
@@ -1414,10 +1398,10 @@
         <v>39814</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04093105715287518</v>
+        <v>0.05201426458959381</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1555439659262906</v>
+        <v>0.1715208805448553</v>
       </c>
     </row>
     <row r="71">
@@ -1428,10 +1412,10 @@
         <v>39845</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2145644140355418</v>
+        <v>0.2135278880615158</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1382108106453548</v>
+        <v>0.1542276535388746</v>
       </c>
     </row>
     <row r="72">
@@ -1445,7 +1429,7 @@
         <v>0.1285787410394265</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1185199537534114</v>
+        <v>0.1296998065170344</v>
       </c>
     </row>
     <row r="73">
@@ -1459,7 +1443,7 @@
         <v>0.1177675070450886</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1218907533846826</v>
+        <v>0.1271174783193303</v>
       </c>
     </row>
     <row r="74">
@@ -1473,7 +1457,7 @@
         <v>0.1382036290322581</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1687426727039407</v>
+        <v>0.1706667288290834</v>
       </c>
     </row>
     <row r="75">
@@ -1487,7 +1471,7 @@
         <v>0.246234375</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2477846219735156</v>
+        <v>0.2496372077908693</v>
       </c>
     </row>
     <row r="76">
@@ -1501,7 +1485,7 @@
         <v>0.3383222446236559</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3178609396581025</v>
+        <v>0.3204057794223781</v>
       </c>
     </row>
     <row r="77">
@@ -1515,7 +1499,7 @@
         <v>0.3081706989247312</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3390388406931561</v>
+        <v>0.3406607972971037</v>
       </c>
     </row>
     <row r="78">
@@ -1529,7 +1513,7 @@
         <v>0.2896048611111111</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3045476532625817</v>
+        <v>0.3041611718030086</v>
       </c>
     </row>
     <row r="79">
@@ -1543,7 +1527,7 @@
         <v>0.2355698924731183</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2437724721161403</v>
+        <v>0.2432948701536921</v>
       </c>
     </row>
     <row r="80">
@@ -1557,7 +1541,7 @@
         <v>0.2665083333333333</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1943206241656963</v>
+        <v>0.1978650958505137</v>
       </c>
     </row>
     <row r="81">
@@ -1568,10 +1552,10 @@
         <v>40148</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3390641801075269</v>
+        <v>0.3361143318705994</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1707055363415701</v>
+        <v>0.1810033564799819</v>
       </c>
     </row>
     <row r="82">
@@ -1582,10 +1566,10 @@
         <v>40179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288890701368524</v>
+        <v>0.2856508381454241</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1592784172950852</v>
+        <v>0.1747646817708135</v>
       </c>
     </row>
     <row r="83">
@@ -1599,7 +1583,7 @@
         <v>0.2549097222222222</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1419452620141495</v>
+        <v>0.1574714547648329</v>
       </c>
     </row>
     <row r="84">
@@ -1613,7 +1597,7 @@
         <v>0.1782081093189964</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1222544051222062</v>
+        <v>0.1329436077429929</v>
       </c>
     </row>
     <row r="85">
@@ -1627,7 +1611,7 @@
         <v>0.1193722222222222</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1256252047534773</v>
+        <v>0.1303612795452884</v>
       </c>
     </row>
     <row r="86">
@@ -1641,7 +1625,7 @@
         <v>0.1971680107526882</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1724771240727353</v>
+        <v>0.1739105300550416</v>
       </c>
     </row>
     <row r="87">
@@ -1655,7 +1639,7 @@
         <v>0.3096680555555556</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2515190733423113</v>
+        <v>0.2528810090168286</v>
       </c>
     </row>
     <row r="88">
@@ -1669,7 +1653,7 @@
         <v>0.3169176747311828</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3215953910268972</v>
+        <v>0.3236495806483364</v>
       </c>
     </row>
     <row r="89">
@@ -1683,7 +1667,7 @@
         <v>0.3585665322580645</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3427732920619508</v>
+        <v>0.3439045985230622</v>
       </c>
     </row>
     <row r="90">
@@ -1697,7 +1681,7 @@
         <v>0.3594157407407408</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3082821046313763</v>
+        <v>0.3074049730289669</v>
       </c>
     </row>
     <row r="91">
@@ -1711,7 +1695,7 @@
         <v>0.2731980286738351</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2475069234849349</v>
+        <v>0.2465386713796504</v>
       </c>
     </row>
     <row r="92">
@@ -1725,7 +1709,7 @@
         <v>0.2654208333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1980550755344904</v>
+        <v>0.2011088970764715</v>
       </c>
     </row>
     <row r="93">
@@ -1736,10 +1720,10 @@
         <v>40513</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3584711021505377</v>
+        <v>0.3484945932539683</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1744399877103648</v>
+        <v>0.1842471577059401</v>
       </c>
     </row>
     <row r="94">
@@ -1753,7 +1737,7 @@
         <v>0.1785637320788531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.16301286866388</v>
+        <v>0.1780084829967719</v>
       </c>
     </row>
     <row r="95">
@@ -1767,7 +1751,7 @@
         <v>0.1706151224982747</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1456797133829442</v>
+        <v>0.1607152559907911</v>
       </c>
     </row>
     <row r="96">
@@ -1781,7 +1765,7 @@
         <v>0.09761133512544802</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1259888564910006</v>
+        <v>0.1361874089689509</v>
       </c>
     </row>
     <row r="97">
@@ -1795,7 +1779,7 @@
         <v>0.1236699494949495</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1293596561222719</v>
+        <v>0.1336050807712467</v>
       </c>
     </row>
     <row r="98">
@@ -1809,7 +1793,7 @@
         <v>0.1875346102150538</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1762115754415299</v>
+        <v>0.1771543312809998</v>
       </c>
     </row>
     <row r="99">
@@ -1823,7 +1807,7 @@
         <v>0.2784716435185185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2552535247111048</v>
+        <v>0.2561248102427857</v>
       </c>
     </row>
     <row r="100">
@@ -1837,7 +1821,7 @@
         <v>0.3564885752688172</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3253298423956917</v>
+        <v>0.3268933818742945</v>
       </c>
     </row>
     <row r="101">
@@ -1851,7 +1835,7 @@
         <v>0.3714082661290323</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3465077434307454</v>
+        <v>0.3471483997490202</v>
       </c>
     </row>
     <row r="102">
@@ -1865,7 +1849,7 @@
         <v>0.3545270833333333</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3120165560001702</v>
+        <v>0.3106487742549243</v>
       </c>
     </row>
     <row r="103">
@@ -1879,7 +1863,7 @@
         <v>0.2442760656682028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2512413748537296</v>
+        <v>0.2497824726056086</v>
       </c>
     </row>
     <row r="104">
@@ -1893,7 +1877,7 @@
         <v>0.1391298611111111</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2017895269032856</v>
+        <v>0.2043526983024302</v>
       </c>
     </row>
     <row r="105">
@@ -1907,7 +1891,7 @@
         <v>0.1258368055555555</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1781744390791594</v>
+        <v>0.1874909589318984</v>
       </c>
     </row>
     <row r="106">
@@ -1921,7 +1905,7 @@
         <v>0.2078047715053764</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1667473200326745</v>
+        <v>0.1812522842227299</v>
       </c>
     </row>
     <row r="107">
@@ -1932,10 +1916,10 @@
         <v>40940</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09560871647509578</v>
+        <v>0.09826063902572522</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1494141647517385</v>
+        <v>0.163959057216749</v>
       </c>
     </row>
     <row r="108">
@@ -1946,10 +1930,10 @@
         <v>40969</v>
       </c>
       <c r="C108" t="n">
-        <v>0.06300051133707341</v>
+        <v>0.06671400571467238</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1297233078597953</v>
+        <v>0.1394312101949091</v>
       </c>
     </row>
     <row r="109">
@@ -1963,7 +1947,7 @@
         <v>0.1934256944444445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1330941074910662</v>
+        <v>0.1368488819972047</v>
       </c>
     </row>
     <row r="110">
@@ -1977,7 +1961,7 @@
         <v>0.2242234543010753</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1799460268103245</v>
+        <v>0.180398132506958</v>
       </c>
     </row>
     <row r="111">
@@ -1991,7 +1975,7 @@
         <v>0.2076586805555556</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2589879760798994</v>
+        <v>0.2593686114687439</v>
       </c>
     </row>
     <row r="112">
@@ -2005,7 +1989,7 @@
         <v>0.3376879480286738</v>
       </c>
       <c r="D112" t="n">
-        <v>0.329064293764487</v>
+        <v>0.3301371831002534</v>
       </c>
     </row>
     <row r="113">
@@ -2019,7 +2003,7 @@
         <v>0.3727167338709678</v>
       </c>
       <c r="D113" t="n">
-        <v>0.35024219479954</v>
+        <v>0.3503922009749785</v>
       </c>
     </row>
     <row r="114">
@@ -2033,7 +2017,7 @@
         <v>0.3022425925925926</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3157510073689657</v>
+        <v>0.3138925754808833</v>
       </c>
     </row>
     <row r="115">
@@ -2047,7 +2031,7 @@
         <v>0.2901071908602151</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2549758262225243</v>
+        <v>0.2530262738315668</v>
       </c>
     </row>
     <row r="116">
@@ -2061,7 +2045,7 @@
         <v>0.211659375</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2055239782720802</v>
+        <v>0.2075964995283885</v>
       </c>
     </row>
     <row r="117">
@@ -2072,10 +2056,10 @@
         <v>41244</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3118693329537202</v>
+        <v>0.3108135789854662</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1819088904479539</v>
+        <v>0.1907347601578565</v>
       </c>
     </row>
     <row r="118">
@@ -2089,7 +2073,7 @@
         <v>0.2596707885304659</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1704817714014691</v>
+        <v>0.1844960854486882</v>
       </c>
     </row>
     <row r="119">
@@ -2103,7 +2087,7 @@
         <v>0.2121232638888889</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1531486161205335</v>
+        <v>0.1672028584427076</v>
       </c>
     </row>
     <row r="120">
@@ -2114,10 +2098,10 @@
         <v>41334</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212307337487781</v>
+        <v>0.212299272971652</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1334577592285899</v>
+        <v>0.1426750114208673</v>
       </c>
     </row>
     <row r="121">
@@ -2131,7 +2115,7 @@
         <v>0.1988472222222222</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1368285588598608</v>
+        <v>0.1400926832231629</v>
       </c>
     </row>
     <row r="122">
@@ -2145,7 +2129,7 @@
         <v>0.2061850134408602</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1836804781791182</v>
+        <v>0.1836419337329153</v>
       </c>
     </row>
     <row r="123">
@@ -2159,7 +2143,7 @@
         <v>0.2795970833333333</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2627224274486951</v>
+        <v>0.2626124126947032</v>
       </c>
     </row>
     <row r="124">
@@ -2170,10 +2154,10 @@
         <v>41456</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3757369633838384</v>
+        <v>0.3747013477162934</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3327987451332809</v>
+        <v>0.3333809843262109</v>
       </c>
     </row>
     <row r="125">
@@ -2187,7 +2171,7 @@
         <v>0.3775493951612903</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3539766461683348</v>
+        <v>0.3536360022009368</v>
       </c>
     </row>
     <row r="126">
@@ -2201,7 +2185,7 @@
         <v>0.2951685558077506</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3194854587377604</v>
+        <v>0.3171363767068416</v>
       </c>
     </row>
     <row r="127">
@@ -2215,7 +2199,7 @@
         <v>0.2246825873573857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2587102775913189</v>
+        <v>0.2562700750575251</v>
       </c>
     </row>
     <row r="128">
@@ -2229,7 +2213,7 @@
         <v>0.195614669011544</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2092584296408744</v>
+        <v>0.2108403007543463</v>
       </c>
     </row>
     <row r="129">
@@ -2240,10 +2224,10 @@
         <v>41609</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09469984663894179</v>
+        <v>0.09484155703374439</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1856433418167485</v>
+        <v>0.1939785613838148</v>
       </c>
     </row>
     <row r="130">
@@ -2257,7 +2241,7 @@
         <v>0.114073811485545</v>
       </c>
       <c r="D130" t="n">
-        <v>0.174216222770264</v>
+        <v>0.1877398866746466</v>
       </c>
     </row>
     <row r="131">
@@ -2268,10 +2252,10 @@
         <v>41671</v>
       </c>
       <c r="C131" t="n">
-        <v>0.104977637987013</v>
+        <v>0.1052654064911538</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1568830674893281</v>
+        <v>0.1704466596686658</v>
       </c>
     </row>
     <row r="132">
@@ -2282,10 +2266,10 @@
         <v>41699</v>
       </c>
       <c r="C132" t="n">
-        <v>0.08636064847280661</v>
+        <v>0.09012347971297831</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1371922105973846</v>
+        <v>0.1459188126468255</v>
       </c>
     </row>
     <row r="133">
@@ -2299,7 +2283,7 @@
         <v>0.1380854166666667</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1405630102286558</v>
+        <v>0.1433364844491213</v>
       </c>
     </row>
     <row r="134">
@@ -2313,7 +2297,7 @@
         <v>0.1433378473619816</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1874149295479147</v>
+        <v>0.1868857349588753</v>
       </c>
     </row>
     <row r="135">
@@ -2327,7 +2311,7 @@
         <v>0.2418701388888889</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2664568788174886</v>
+        <v>0.2658562139206603</v>
       </c>
     </row>
     <row r="136">
@@ -2341,7 +2325,7 @@
         <v>0.369877688172043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3365331965020756</v>
+        <v>0.3366247855521692</v>
       </c>
     </row>
     <row r="137">
@@ -2355,7 +2339,7 @@
         <v>0.3843040994623656</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3577110975371293</v>
+        <v>0.3568798034268949</v>
       </c>
     </row>
     <row r="138">
@@ -2366,10 +2350,10 @@
         <v>41883</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3801241898148148</v>
+        <v>0.3797849386070853</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3232199101065542</v>
+        <v>0.3203801779327991</v>
       </c>
     </row>
     <row r="139">
@@ -2383,7 +2367,7 @@
         <v>0.2561609343349129</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2624447289601128</v>
+        <v>0.2595138762834826</v>
       </c>
     </row>
     <row r="140">
@@ -2397,7 +2381,7 @@
         <v>0.2571672312617405</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2129928810096695</v>
+        <v>0.2140841019803049</v>
       </c>
     </row>
     <row r="141">
@@ -2411,7 +2395,7 @@
         <v>0.1945568941291552</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1893777931855433</v>
+        <v>0.1972223626097731</v>
       </c>
     </row>
     <row r="142">
@@ -2425,7 +2409,7 @@
         <v>0.1882800957461017</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1779506741390584</v>
+        <v>0.1909836879006047</v>
       </c>
     </row>
     <row r="143">
@@ -2436,10 +2420,10 @@
         <v>42036</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2345281262894636</v>
+        <v>0.2379362181390037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.160617518858123</v>
+        <v>0.1736904608946244</v>
       </c>
     </row>
     <row r="144">
@@ -2453,7 +2437,7 @@
         <v>0.09059419824703605</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1409266619661791</v>
+        <v>0.1491626138727836</v>
       </c>
     </row>
     <row r="145">
@@ -2464,10 +2448,10 @@
         <v>42095</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1310911896066068</v>
+        <v>0.1316791274085392</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1442974615974501</v>
+        <v>0.1465802856750793</v>
       </c>
     </row>
     <row r="146">
@@ -2481,7 +2465,7 @@
         <v>0.1933690853551012</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1911493809167083</v>
+        <v>0.1901295361848326</v>
       </c>
     </row>
     <row r="147">
@@ -2495,7 +2479,7 @@
         <v>0.2491996527777778</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2701913301862843</v>
+        <v>0.2691000151466196</v>
       </c>
     </row>
     <row r="148">
@@ -2509,7 +2493,7 @@
         <v>0.3230907258064516</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3402676478708695</v>
+        <v>0.3398685867781266</v>
       </c>
     </row>
     <row r="149">
@@ -2523,7 +2507,7 @@
         <v>0.3378588116698292</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3614455489059238</v>
+        <v>0.360123604652853</v>
       </c>
     </row>
     <row r="150">
@@ -2537,7 +2521,7 @@
         <v>0.3037314814814815</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3269543614753496</v>
+        <v>0.3236239791587581</v>
       </c>
     </row>
     <row r="151">
@@ -2551,7 +2535,7 @@
         <v>0.3073501344086021</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2661791803289082</v>
+        <v>0.2627576775094416</v>
       </c>
     </row>
     <row r="152">
@@ -2565,7 +2549,7 @@
         <v>0.206665625</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2167273323784637</v>
+        <v>0.2173279032062627</v>
       </c>
     </row>
     <row r="153">
@@ -2579,7 +2563,7 @@
         <v>0.1490451913064729</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1931122445543382</v>
+        <v>0.2004661638357314</v>
       </c>
     </row>
     <row r="154">
@@ -2593,7 +2577,7 @@
         <v>0.2264752242669847</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1816851255078533</v>
+        <v>0.194227489126563</v>
       </c>
     </row>
     <row r="155">
@@ -2607,7 +2591,7 @@
         <v>0.1706257761683638</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1643519702269174</v>
+        <v>0.1769342621205823</v>
       </c>
     </row>
     <row r="156">
@@ -2621,7 +2605,7 @@
         <v>0.2083232601622612</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1446611133349739</v>
+        <v>0.152406415098742</v>
       </c>
     </row>
     <row r="157">
@@ -2635,7 +2619,7 @@
         <v>0.1709677076144467</v>
       </c>
       <c r="D157" t="n">
-        <v>0.148031912966245</v>
+        <v>0.1498240869010378</v>
       </c>
     </row>
     <row r="158">
@@ -2649,7 +2633,7 @@
         <v>0.2242056451612903</v>
       </c>
       <c r="D158" t="n">
-        <v>0.194883832285502</v>
+        <v>0.1933733374107899</v>
       </c>
     </row>
     <row r="159">
@@ -2663,7 +2647,7 @@
         <v>0.2630766203703704</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2739257815550778</v>
+        <v>0.2723438163725767</v>
       </c>
     </row>
     <row r="160">
@@ -2677,7 +2661,7 @@
         <v>0.3566260080645162</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3440020992396648</v>
+        <v>0.3431123880040856</v>
       </c>
     </row>
     <row r="161">
@@ -2691,7 +2675,7 @@
         <v>0.3658323252688172</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3651800002747186</v>
+        <v>0.3633674058788113</v>
       </c>
     </row>
     <row r="162">
@@ -2705,7 +2689,7 @@
         <v>0.3095256944444445</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3306888128441435</v>
+        <v>0.3268677803847156</v>
       </c>
     </row>
     <row r="163">
@@ -2719,7 +2703,7 @@
         <v>0.2390311379928315</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2699136316977038</v>
+        <v>0.2660014787354007</v>
       </c>
     </row>
     <row r="164">
@@ -2733,7 +2717,7 @@
         <v>0.1926822916666667</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2204617837472588</v>
+        <v>0.2205717044322214</v>
       </c>
     </row>
     <row r="165">
@@ -2744,10 +2728,10 @@
         <v>42705</v>
       </c>
       <c r="C165" t="n">
-        <v>0.09195883997714635</v>
+        <v>0.09232780132980335</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1968466959231326</v>
+        <v>0.2037099650616895</v>
       </c>
     </row>
     <row r="166">
@@ -2758,10 +2742,10 @@
         <v>42736</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1144575306078586</v>
+        <v>0.114741410341379</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1854195768766481</v>
+        <v>0.1974712903525214</v>
       </c>
     </row>
     <row r="167">
@@ -2771,12 +2755,8 @@
       <c r="B167" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="C167" t="n">
-        <v>0.0140877490942029</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.1680864215957124</v>
-      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -2789,7 +2769,7 @@
         <v>0.1030496675155631</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1483955647037684</v>
+        <v>0.1556502163247</v>
       </c>
     </row>
     <row r="169">
@@ -2800,10 +2780,10 @@
         <v>42826</v>
       </c>
       <c r="C169" t="n">
-        <v>0.08413969907407408</v>
+        <v>0.08475241042673107</v>
       </c>
       <c r="D169" t="n">
-        <v>0.15176636433504</v>
+        <v>0.1530678881269962</v>
       </c>
     </row>
     <row r="170">
@@ -2817,7 +2797,7 @@
         <v>0.188400873655914</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1986182836542975</v>
+        <v>0.196617138636749</v>
       </c>
     </row>
     <row r="171">
@@ -2831,7 +2811,7 @@
         <v>0.2054232638888889</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2776602329238735</v>
+        <v>0.2755876175985359</v>
       </c>
     </row>
     <row r="172">
@@ -2845,7 +2825,7 @@
         <v>0.3503182123655914</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3477365506084601</v>
+        <v>0.3463561892300445</v>
       </c>
     </row>
     <row r="173">
@@ -2859,7 +2839,7 @@
         <v>0.3575050403225806</v>
       </c>
       <c r="D173" t="n">
-        <v>0.3689144516435133</v>
+        <v>0.3666112071047697</v>
       </c>
     </row>
     <row r="174">
@@ -2873,7 +2853,7 @@
         <v>0.3106946759259259</v>
       </c>
       <c r="D174" t="n">
-        <v>0.334423264212939</v>
+        <v>0.3301115816106746</v>
       </c>
     </row>
     <row r="175">
@@ -2887,7 +2867,7 @@
         <v>0.2509092741935484</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2736480830664976</v>
+        <v>0.2692452799613582</v>
       </c>
     </row>
     <row r="176">
@@ -2901,7 +2881,7 @@
         <v>0.2431699977313974</v>
       </c>
       <c r="D176" t="n">
-        <v>0.224196235116054</v>
+        <v>0.22381550565818</v>
       </c>
     </row>
     <row r="177">
@@ -2915,7 +2895,7 @@
         <v>0.1836227881493507</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2005811472919275</v>
+        <v>0.2069537662876479</v>
       </c>
     </row>
     <row r="178">
@@ -2926,10 +2906,10 @@
         <v>43101</v>
       </c>
       <c r="C178" t="n">
-        <v>0.253766240446796</v>
+        <v>0.2536648079454541</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1891540282454425</v>
+        <v>0.2007150915784795</v>
       </c>
     </row>
     <row r="179">
@@ -2940,10 +2920,10 @@
         <v>43132</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1341941964285714</v>
+        <v>0.1413612351190476</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1718208729645061</v>
+        <v>0.1834218645724981</v>
       </c>
     </row>
     <row r="180">
@@ -2957,7 +2937,7 @@
         <v>0.2846073334147931</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1521300160725632</v>
+        <v>0.1588940175506585</v>
       </c>
     </row>
     <row r="181">
@@ -2971,7 +2951,7 @@
         <v>0.1734158564814815</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1555008157038343</v>
+        <v>0.1563116893529542</v>
       </c>
     </row>
     <row r="182">
@@ -2985,7 +2965,7 @@
         <v>0.2174718701996928</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2023527350230931</v>
+        <v>0.1998609398627081</v>
       </c>
     </row>
     <row r="183">
@@ -2999,7 +2979,7 @@
         <v>0.2672645833333334</v>
       </c>
       <c r="D183" t="n">
-        <v>0.281394684292667</v>
+        <v>0.278831418824493</v>
       </c>
     </row>
     <row r="184">
@@ -3010,10 +2990,10 @@
         <v>43282</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3766922043010753</v>
+        <v>0.3763687616877046</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3514710019772541</v>
+        <v>0.349599990456002</v>
       </c>
     </row>
     <row r="185">
@@ -3027,7 +3007,7 @@
         <v>0.3742983870967742</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3726489030123079</v>
+        <v>0.3698550083307278</v>
       </c>
     </row>
     <row r="186">
@@ -3041,7 +3021,7 @@
         <v>0.3230955766908213</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3381577155817344</v>
+        <v>0.3333553828366336</v>
       </c>
     </row>
     <row r="187">
@@ -3055,7 +3035,7 @@
         <v>0.2292570564516129</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2773825344352931</v>
+        <v>0.2724890811873172</v>
       </c>
     </row>
     <row r="188">
@@ -3069,7 +3049,7 @@
         <v>0.2063121527777778</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2279306864848482</v>
+        <v>0.2270593068841379</v>
       </c>
     </row>
     <row r="189">
@@ -3080,10 +3060,10 @@
         <v>43435</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3077109004288016</v>
+        <v>0.3076998117191241</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2043155986607215</v>
+        <v>0.2101975675136058</v>
       </c>
     </row>
     <row r="190">
@@ -3094,10 +3074,10 @@
         <v>43466</v>
       </c>
       <c r="C190" t="n">
-        <v>0.273210461469534</v>
+        <v>0.2728957926034539</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1928884796142369</v>
+        <v>0.2039588928044376</v>
       </c>
     </row>
     <row r="191">
@@ -3111,7 +3091,7 @@
         <v>0.1918200853696742</v>
       </c>
       <c r="D191" t="n">
-        <v>0.175555324333301</v>
+        <v>0.1866656657984567</v>
       </c>
     </row>
     <row r="192">
@@ -3125,7 +3105,7 @@
         <v>0.1560651576246334</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1558644674413576</v>
+        <v>0.1621378187766165</v>
       </c>
     </row>
     <row r="193">
@@ -3139,7 +3119,7 @@
         <v>0.1800982638888889</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1592352670726286</v>
+        <v>0.1595554905789122</v>
       </c>
     </row>
     <row r="194">
@@ -3153,7 +3133,7 @@
         <v>0.1746256720430107</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2060871863918868</v>
+        <v>0.2031047410886654</v>
       </c>
     </row>
     <row r="195">
@@ -3167,7 +3147,7 @@
         <v>0.2312052083333333</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2851291356614627</v>
+        <v>0.2820752200504523</v>
       </c>
     </row>
     <row r="196">
@@ -3181,7 +3161,7 @@
         <v>0.365295314653984</v>
       </c>
       <c r="D196" t="n">
-        <v>0.355205453346048</v>
+        <v>0.3528437916819595</v>
       </c>
     </row>
     <row r="197">
@@ -3195,7 +3175,7 @@
         <v>0.358605619201587</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3763833543811027</v>
+        <v>0.3730988095566862</v>
       </c>
     </row>
     <row r="198">
@@ -3209,7 +3189,7 @@
         <v>0.31478146972545</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3418921669505283</v>
+        <v>0.3365991840625912</v>
       </c>
     </row>
     <row r="199">
@@ -3223,7 +3203,7 @@
         <v>0.2697226466704395</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2811169858040886</v>
+        <v>0.2757328824132762</v>
       </c>
     </row>
     <row r="200">
@@ -3237,7 +3217,7 @@
         <v>0.2570778194028194</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2316651378536423</v>
+        <v>0.2303031081100957</v>
       </c>
     </row>
   </sheetData>
